--- a/Python3/Scripts/output/mcq_1.xlsx
+++ b/Python3/Scripts/output/mcq_1.xlsx
@@ -28,7 +28,7 @@
     <t>score</t>
   </si>
   <si>
-    <t>1.In which year, Amazon Web Services founded?</t>
+    <t>In which year, Amazon Web Services founded?</t>
   </si>
   <si>
     <t>2005</t>
@@ -43,61 +43,61 @@
     <t>2008</t>
   </si>
   <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>EC2 stands for ?</t>
+  </si>
+  <si>
+    <t>*Elastic Compute Cloud</t>
+  </si>
+  <si>
+    <t>Elastic Configuration Cloud</t>
+  </si>
+  <si>
+    <t>Elastic Cloud Configuration</t>
+  </si>
+  <si>
+    <t>Elastic Cloud Compute</t>
+  </si>
+  <si>
+    <t>Which of the following simply means to hardware or software load over web servers, that improver's the efficiency of the server as well as the application?</t>
+  </si>
+  <si>
+    <t>Amazon Cloud-front</t>
+  </si>
+  <si>
+    <t>Elastic Load Balancer</t>
+  </si>
+  <si>
+    <t>*Load Balancing</t>
+  </si>
+  <si>
+    <t>Security Management</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Which of the following dynamically grow and shrink the load-balancing capacity to adjust to traffic demands?</t>
+  </si>
+  <si>
+    <t>Elastic Caches</t>
+  </si>
+  <si>
+    <t>Amazon RDS</t>
+  </si>
+  <si>
+    <t>*Elastic Load Balancing</t>
+  </si>
+  <si>
     <t>Easy</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2.EC2 stands for ?</t>
-  </si>
-  <si>
-    <t>*Elastic Compute Cloud</t>
-  </si>
-  <si>
-    <t>Elastic Configuration Cloud</t>
-  </si>
-  <si>
-    <t>Elastic Cloud Configuration</t>
-  </si>
-  <si>
-    <t>Elastic Cloud Compute</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>3.Which of the following simply means to hardware or software load over web servers, that improver's the efficiency of the server as well as the application?</t>
-  </si>
-  <si>
-    <t>Amazon Cloud-front</t>
-  </si>
-  <si>
-    <t>Elastic Load Balancer</t>
-  </si>
-  <si>
-    <t>*Load Balancing</t>
-  </si>
-  <si>
-    <t>Security Management</t>
-  </si>
-  <si>
-    <t>Difficult</t>
-  </si>
-  <si>
-    <t>4.Which of the following dynamically grow and shrink the load-balancing capacity to adjust to traffic demands?</t>
-  </si>
-  <si>
-    <t>Elastic Caches</t>
-  </si>
-  <si>
-    <t>Amazon RDS</t>
-  </si>
-  <si>
-    <t>*Elastic Load Balancing</t>
-  </si>
-  <si>
-    <t>5.Simple Storage Service use for?</t>
+    <t>Simple Storage Service use for?</t>
   </si>
   <si>
     <t>*It allows the users to store and retrieve various types of data using API calls.</t>
@@ -112,7 +112,7 @@
     <t>None of the above</t>
   </si>
   <si>
-    <t>6.Amazon S3 stores data as objects within resources called ?</t>
+    <t>Amazon S3 stores data as objects within resources called ?</t>
   </si>
   <si>
     <t>Auto Scaling</t>
@@ -124,7 +124,7 @@
     <t>*Buckets</t>
   </si>
   <si>
-    <t>7.Amazon EBS currently supports up to ________ IOPS per volume</t>
+    <t>Amazon EBS currently supports up to ________ IOPS per volume</t>
   </si>
   <si>
     <t>10</t>
@@ -139,7 +139,7 @@
     <t>10000</t>
   </si>
   <si>
-    <t>8.Amazon EBS volumes can be maximized up to ?</t>
+    <t>Amazon EBS volumes can be maximized up to ?</t>
   </si>
   <si>
     <t>*1 TB</t>
@@ -154,7 +154,7 @@
     <t>4 TB</t>
   </si>
   <si>
-    <t>9.Which of the following is not used for load balancing?</t>
+    <t>Which of the following is not used for load balancing?</t>
   </si>
   <si>
     <t>Zeus</t>
@@ -169,7 +169,7 @@
     <t>*OpenSwan</t>
   </si>
   <si>
-    <t>10.Which of the following is a web service that manages the memory cache in the cloud?</t>
+    <t>Which of the following is a web service that manages the memory cache in the cloud?</t>
   </si>
   <si>
     <t>*Amazon Elastic Cache</t>
@@ -178,7 +178,7 @@
     <t>RDMS on EC2</t>
   </si>
   <si>
-    <t>11.Point out the wrong statement.</t>
+    <t>Point out the wrong statement</t>
   </si>
   <si>
     <t>Amazon Machine Instances are sized at various levels and rented on a computing/hour basis</t>
@@ -193,7 +193,7 @@
     <t>*None of the above</t>
   </si>
   <si>
-    <t>12.Which of the following is an edge-storage or content-delivery system that caches data in different physical locations?</t>
+    <t>Which of the following is an edge-storage or content-delivery system that caches data in different physical locations?</t>
   </si>
   <si>
     <t>Amazon Relational Database Service</t>
@@ -208,7 +208,7 @@
     <t>Amazon Associates Web Services</t>
   </si>
   <si>
-    <t>13.Which of the following allows you to create instances of the MySQL database to support your Web sites?</t>
+    <t>Which of the following allows you to create instances of the MySQL database to support your Web sites?</t>
   </si>
   <si>
     <t>Amazon Elastic Compute Cloud</t>
@@ -223,7 +223,7 @@
     <t>Amazon Simple Storage System</t>
   </si>
   <si>
-    <t>14.Point out the correct statement.</t>
+    <t>Point out the correct statement</t>
   </si>
   <si>
     <t>Amazon Elastic Cloud is a system for creating virtual disks(volume)</t>
@@ -235,7 +235,7 @@
     <t>EC3 is an Analytics as a Service provider</t>
   </si>
   <si>
-    <t>15.Which of the following is a structured data store that supports indexing and data queries to both EC2 and S3?</t>
+    <t>Which of the following is a structured data store that supports indexing and data queries to both EC2 and S3?</t>
   </si>
   <si>
     <t>CloudWatch</t>
@@ -250,7 +250,7 @@
     <t>All of the above</t>
   </si>
   <si>
-    <t>16.Which of the following is built on top of a Hadoop framework using the Elastic Compute Cloud?</t>
+    <t>Which of the following is built on top of a Hadoop framework using the Elastic Compute Cloud?</t>
   </si>
   <si>
     <t>*Amazon Elastic MapReduce</t>
@@ -265,7 +265,7 @@
     <t>Multi-Factor Authentication</t>
   </si>
   <si>
-    <t>17._________________ is a billing and account management service.</t>
+    <t>_________________ is a billing and account management service</t>
   </si>
   <si>
     <t>Amazon Elastic MapReduce</t>
@@ -274,7 +274,7 @@
     <t>*Amazon DevPay</t>
   </si>
   <si>
-    <t>18.Which of the following is a system for creating block-level storage devices that can be used for Amazon Machine Instances in EC2?</t>
+    <t>Which of the following is a system for creating block-level storage devices that can be used for Amazon Machine Instances in EC2?</t>
   </si>
   <si>
     <t>*Amazon Elastic Block Store</t>
@@ -283,7 +283,7 @@
     <t>AWS Import/Export</t>
   </si>
   <si>
-    <t>19.Which of the following is Amazon’s technical support and consulting business?</t>
+    <t>Which of the following is Amazon’s technical support and consulting business?</t>
   </si>
   <si>
     <t>Amazon Virtual Private Cloud</t>
@@ -295,7 +295,7 @@
     <t>Amazon Fulfillment Web Services</t>
   </si>
   <si>
-    <t>20.What is a virtual server platform that allows users to create and run virtual machines on Amazon’s server farm?</t>
+    <t>What is a virtual server platform that allows users to create and run virtual machines on Amazon’s server farm?</t>
   </si>
   <si>
     <t>Azure</t>
@@ -708,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -716,22 +716,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -739,22 +739,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -777,7 +777,7 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -797,10 +797,10 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -823,7 +823,7 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -869,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -883,7 +883,7 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -892,7 +892,7 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -915,7 +915,7 @@
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -938,7 +938,7 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -961,7 +961,7 @@
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -984,7 +984,7 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -1030,7 +1030,7 @@
         <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1122,7 +1122,7 @@
         <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>

--- a/Python3/Scripts/output/mcq_1.xlsx
+++ b/Python3/Scripts/output/mcq_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>question</t>
   </si>
@@ -28,7 +28,19 @@
     <t>score</t>
   </si>
   <si>
-    <t>In which year, Amazon Web Services founded?</t>
+    <t>label</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>correct_answer_feedback</t>
+  </si>
+  <si>
+    <t>incorrect_answer_feedback</t>
+  </si>
+  <si>
+    <t>1.In which year, Amazon Web Services founded?</t>
   </si>
   <si>
     <t>2005</t>
@@ -43,76 +55,82 @@
     <t>2008</t>
   </si>
   <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.EC2 stands for ?</t>
+  </si>
+  <si>
+    <t>*Elastic Compute Cloud</t>
+  </si>
+  <si>
+    <t>Elastic Configuration Cloud</t>
+  </si>
+  <si>
+    <t>Elastic Cloud Configuration</t>
+  </si>
+  <si>
+    <t>Elastic Cloud Compute</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3.Which of the following simply means to hardware or software load over web servers, that improver's the efficiency of the server as well as the application?</t>
+  </si>
+  <si>
+    <t>Amazon Cloud-front</t>
+  </si>
+  <si>
+    <t>Elastic Load Balancer</t>
+  </si>
+  <si>
+    <t>*Load Balancing</t>
+  </si>
+  <si>
+    <t>Security Management</t>
+  </si>
+  <si>
+    <t>4.Which of the following dynamically grow and shrink the load-balancing capacity to adjust to traffic demands?</t>
+  </si>
+  <si>
+    <t>Elastic Caches</t>
+  </si>
+  <si>
+    <t>Amazon RDS</t>
+  </si>
+  <si>
+    <t>*Elastic Load Balancing</t>
+  </si>
+  <si>
+    <t>5.Simple Storage Service use for?</t>
+  </si>
+  <si>
+    <t>*It allows the users to store and retrieve various types of data using API calls.</t>
+  </si>
+  <si>
+    <t>It does contain computing element.</t>
+  </si>
+  <si>
+    <t>Both A and B</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
     <t>Difficult</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>EC2 stands for ?</t>
-  </si>
-  <si>
-    <t>*Elastic Compute Cloud</t>
-  </si>
-  <si>
-    <t>Elastic Configuration Cloud</t>
-  </si>
-  <si>
-    <t>Elastic Cloud Configuration</t>
-  </si>
-  <si>
-    <t>Elastic Cloud Compute</t>
-  </si>
-  <si>
-    <t>Which of the following simply means to hardware or software load over web servers, that improver's the efficiency of the server as well as the application?</t>
-  </si>
-  <si>
-    <t>Amazon Cloud-front</t>
-  </si>
-  <si>
-    <t>Elastic Load Balancer</t>
-  </si>
-  <si>
-    <t>*Load Balancing</t>
-  </si>
-  <si>
-    <t>Security Management</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>Which of the following dynamically grow and shrink the load-balancing capacity to adjust to traffic demands?</t>
-  </si>
-  <si>
-    <t>Elastic Caches</t>
-  </si>
-  <si>
-    <t>Amazon RDS</t>
-  </si>
-  <si>
-    <t>*Elastic Load Balancing</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>Simple Storage Service use for?</t>
-  </si>
-  <si>
-    <t>*It allows the users to store and retrieve various types of data using API calls.</t>
-  </si>
-  <si>
-    <t>It does contain computing element.</t>
-  </si>
-  <si>
-    <t>Both A and B</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>Amazon S3 stores data as objects within resources called ?</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6.Amazon S3 stores data as objects within resources called ?</t>
   </si>
   <si>
     <t>Auto Scaling</t>
@@ -124,7 +142,7 @@
     <t>*Buckets</t>
   </si>
   <si>
-    <t>Amazon EBS currently supports up to ________ IOPS per volume</t>
+    <t>7.Amazon EBS currently supports up to ________ IOPS per volume</t>
   </si>
   <si>
     <t>10</t>
@@ -139,7 +157,7 @@
     <t>10000</t>
   </si>
   <si>
-    <t>Amazon EBS volumes can be maximized up to ?</t>
+    <t>8.Amazon EBS volumes can be maximized up to ?</t>
   </si>
   <si>
     <t>*1 TB</t>
@@ -154,7 +172,7 @@
     <t>4 TB</t>
   </si>
   <si>
-    <t>Which of the following is not used for load balancing?</t>
+    <t>9.Which of the following is not used for load balancing?</t>
   </si>
   <si>
     <t>Zeus</t>
@@ -169,7 +187,7 @@
     <t>*OpenSwan</t>
   </si>
   <si>
-    <t>Which of the following is a web service that manages the memory cache in the cloud?</t>
+    <t>10.Which of the following is a web service that manages the memory cache in the cloud?</t>
   </si>
   <si>
     <t>*Amazon Elastic Cache</t>
@@ -178,7 +196,10 @@
     <t>RDMS on EC2</t>
   </si>
   <si>
-    <t>Point out the wrong statement</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11.Point out the wrong statement.</t>
   </si>
   <si>
     <t>Amazon Machine Instances are sized at various levels and rented on a computing/hour basis</t>
@@ -193,7 +214,7 @@
     <t>*None of the above</t>
   </si>
   <si>
-    <t>Which of the following is an edge-storage or content-delivery system that caches data in different physical locations?</t>
+    <t>12.Which of the following is an edge-storage or content-delivery system that caches data in different physical locations?</t>
   </si>
   <si>
     <t>Amazon Relational Database Service</t>
@@ -208,7 +229,7 @@
     <t>Amazon Associates Web Services</t>
   </si>
   <si>
-    <t>Which of the following allows you to create instances of the MySQL database to support your Web sites?</t>
+    <t>13.Which of the following allows you to create instances of the MySQL database to support your Web sites?</t>
   </si>
   <si>
     <t>Amazon Elastic Compute Cloud</t>
@@ -223,7 +244,7 @@
     <t>Amazon Simple Storage System</t>
   </si>
   <si>
-    <t>Point out the correct statement</t>
+    <t>14.Point out the correct statement.</t>
   </si>
   <si>
     <t>Amazon Elastic Cloud is a system for creating virtual disks(volume)</t>
@@ -235,7 +256,7 @@
     <t>EC3 is an Analytics as a Service provider</t>
   </si>
   <si>
-    <t>Which of the following is a structured data store that supports indexing and data queries to both EC2 and S3?</t>
+    <t>15.Which of the following is a structured data store that supports indexing and data queries to both EC2 and S3?</t>
   </si>
   <si>
     <t>CloudWatch</t>
@@ -250,7 +271,7 @@
     <t>All of the above</t>
   </si>
   <si>
-    <t>Which of the following is built on top of a Hadoop framework using the Elastic Compute Cloud?</t>
+    <t>16.Which of the following is built on top of a Hadoop framework using the Elastic Compute Cloud?</t>
   </si>
   <si>
     <t>*Amazon Elastic MapReduce</t>
@@ -265,7 +286,7 @@
     <t>Multi-Factor Authentication</t>
   </si>
   <si>
-    <t>_________________ is a billing and account management service</t>
+    <t>17._________________ is a billing and account management service.</t>
   </si>
   <si>
     <t>Amazon Elastic MapReduce</t>
@@ -274,7 +295,7 @@
     <t>*Amazon DevPay</t>
   </si>
   <si>
-    <t>Which of the following is a system for creating block-level storage devices that can be used for Amazon Machine Instances in EC2?</t>
+    <t>18.Which of the following is a system for creating block-level storage devices that can be used for Amazon Machine Instances in EC2?</t>
   </si>
   <si>
     <t>*Amazon Elastic Block Store</t>
@@ -283,7 +304,7 @@
     <t>AWS Import/Export</t>
   </si>
   <si>
-    <t>Which of the following is Amazon’s technical support and consulting business?</t>
+    <t>19.Which of the following is Amazon’s technical support and consulting business?</t>
   </si>
   <si>
     <t>Amazon Virtual Private Cloud</t>
@@ -295,7 +316,7 @@
     <t>Amazon Fulfillment Web Services</t>
   </si>
   <si>
-    <t>What is a virtual server platform that allows users to create and run virtual machines on Amazon’s server farm?</t>
+    <t>20.What is a virtual server platform that allows users to create and run virtual machines on Amazon’s server farm?</t>
   </si>
   <si>
     <t>Azure</t>
@@ -308,6 +329,9 @@
   </si>
   <si>
     <t>EC5</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -639,13 +663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,465 +691,480 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Python3/Scripts/output/mcq_1.xlsx
+++ b/Python3/Scripts/output/mcq_1.xlsx
@@ -55,81 +55,84 @@
     <t>2008</t>
   </si>
   <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2.EC2 stands for ?</t>
+  </si>
+  <si>
+    <t>*Elastic Compute Cloud</t>
+  </si>
+  <si>
+    <t>Elastic Configuration Cloud</t>
+  </si>
+  <si>
+    <t>Elastic Cloud Configuration</t>
+  </si>
+  <si>
+    <t>Elastic Cloud Compute</t>
+  </si>
+  <si>
     <t>Easy</t>
   </si>
   <si>
+    <t>3.Which of the following simply means to hardware or software load over web servers, that improver's the efficiency of the server as well as the application?</t>
+  </si>
+  <si>
+    <t>Amazon Cloud-front</t>
+  </si>
+  <si>
+    <t>Elastic Load Balancer</t>
+  </si>
+  <si>
+    <t>*Load Balancing</t>
+  </si>
+  <si>
+    <t>Security Management</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.Which of the following dynamically grow and shrink the load-balancing capacity to adjust to traffic demands?</t>
+  </si>
+  <si>
+    <t>Elastic Caches</t>
+  </si>
+  <si>
+    <t>Amazon RDS</t>
+  </si>
+  <si>
+    <t>*Elastic Load Balancing</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5.Simple Storage Service use for?</t>
+  </si>
+  <si>
+    <t>*It allows the users to store and retrieve various types of data using API calls.</t>
+  </si>
+  <si>
+    <t>It does contain computing element.</t>
+  </si>
+  <si>
+    <t>Both A and B</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>2.EC2 stands for ?</t>
-  </si>
-  <si>
-    <t>*Elastic Compute Cloud</t>
-  </si>
-  <si>
-    <t>Elastic Configuration Cloud</t>
-  </si>
-  <si>
-    <t>Elastic Cloud Configuration</t>
-  </si>
-  <si>
-    <t>Elastic Cloud Compute</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3.Which of the following simply means to hardware or software load over web servers, that improver's the efficiency of the server as well as the application?</t>
-  </si>
-  <si>
-    <t>Amazon Cloud-front</t>
-  </si>
-  <si>
-    <t>Elastic Load Balancer</t>
-  </si>
-  <si>
-    <t>*Load Balancing</t>
-  </si>
-  <si>
-    <t>Security Management</t>
-  </si>
-  <si>
-    <t>4.Which of the following dynamically grow and shrink the load-balancing capacity to adjust to traffic demands?</t>
-  </si>
-  <si>
-    <t>Elastic Caches</t>
-  </si>
-  <si>
-    <t>Amazon RDS</t>
-  </si>
-  <si>
-    <t>*Elastic Load Balancing</t>
-  </si>
-  <si>
-    <t>5.Simple Storage Service use for?</t>
-  </si>
-  <si>
-    <t>*It allows the users to store and retrieve various types of data using API calls.</t>
-  </si>
-  <si>
-    <t>It does contain computing element.</t>
-  </si>
-  <si>
-    <t>Both A and B</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>Difficult</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>6.Amazon S3 stores data as objects within resources called ?</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>4 TB</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>9.Which of the following is not used for load balancing?</t>
   </si>
   <si>
@@ -196,9 +202,6 @@
     <t>RDMS on EC2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>11.Point out the wrong statement.</t>
   </si>
   <si>
@@ -329,9 +332,6 @@
   </si>
   <si>
     <t>EC5</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -750,30 +750,30 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -781,7 +781,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -793,47 +793,47 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -842,73 +842,73 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -916,203 +916,203 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1123,48 +1123,48 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
